--- a/metrics/transfer_time/cleaned_data/Redis_03.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/Redis_03.nan.xlsx
@@ -619,13 +619,27 @@
       <c r="R2" t="n">
         <v>2637</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -682,13 +696,27 @@
       <c r="R3" t="n">
         <v>2636</v>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -745,13 +773,27 @@
       <c r="R4" t="n">
         <v>2635</v>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -808,13 +850,27 @@
       <c r="R5" t="n">
         <v>2633</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -948,13 +1004,27 @@
       <c r="R7" t="n">
         <v>2631</v>
       </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1011,13 +1081,27 @@
       <c r="R8" t="n">
         <v>2635</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1074,13 +1158,27 @@
       <c r="R9" t="n">
         <v>2633</v>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1137,13 +1235,27 @@
       <c r="R10" t="n">
         <v>2633</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10820848</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1277,13 +1389,27 @@
       <c r="R12" t="n">
         <v>2637</v>
       </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10821148</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1340,13 +1466,27 @@
       <c r="R13" t="n">
         <v>2635</v>
       </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10821148</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1403,13 +1543,27 @@
       <c r="R14" t="n">
         <v>2637</v>
       </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U14" t="n">
+        <v>10821148</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1466,13 +1620,27 @@
       <c r="R15" t="n">
         <v>2633</v>
       </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10821148</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1606,13 +1774,27 @@
       <c r="R17" t="n">
         <v>2632</v>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10821448</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1669,13 +1851,27 @@
       <c r="R18" t="n">
         <v>2634</v>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U18" t="n">
+        <v>10821448</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1732,13 +1928,27 @@
       <c r="R19" t="n">
         <v>2635</v>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U19" t="n">
+        <v>10821448</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1795,13 +2005,27 @@
       <c r="R20" t="n">
         <v>2634</v>
       </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U20" t="n">
+        <v>10821448</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1935,13 +2159,27 @@
       <c r="R22" t="n">
         <v>2634</v>
       </c>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10821748</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1998,13 +2236,27 @@
       <c r="R23" t="n">
         <v>2634</v>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10821748</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2061,13 +2313,27 @@
       <c r="R24" t="n">
         <v>2633</v>
       </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U24" t="n">
+        <v>10821748</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2124,13 +2390,27 @@
       <c r="R25" t="n">
         <v>2636</v>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U25" t="n">
+        <v>10821748</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -2264,13 +2544,27 @@
       <c r="R27" t="n">
         <v>2634</v>
       </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10822048</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7833</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2327,13 +2621,27 @@
       <c r="R28" t="n">
         <v>2636</v>
       </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U28" t="n">
+        <v>10822048</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7833</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2390,13 +2698,27 @@
       <c r="R29" t="n">
         <v>2633</v>
       </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10822048</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>7833</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2453,13 +2775,27 @@
       <c r="R30" t="n">
         <v>2633</v>
       </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10822048</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7833</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2593,13 +2929,27 @@
       <c r="R32" t="n">
         <v>2633</v>
       </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10822349</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2656,13 +3006,27 @@
       <c r="R33" t="n">
         <v>2636</v>
       </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U33" t="n">
+        <v>10822349</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2719,13 +3083,27 @@
       <c r="R34" t="n">
         <v>2635</v>
       </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U34" t="n">
+        <v>10822349</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2782,13 +3160,27 @@
       <c r="R35" t="n">
         <v>2633</v>
       </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U35" t="n">
+        <v>10822349</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2922,13 +3314,27 @@
       <c r="R37" t="n">
         <v>2632</v>
       </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U37" t="n">
+        <v>10822649</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2985,13 +3391,27 @@
       <c r="R38" t="n">
         <v>2636</v>
       </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10822649</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -3048,13 +3468,27 @@
       <c r="R39" t="n">
         <v>2635</v>
       </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U39" t="n">
+        <v>10822649</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3111,13 +3545,27 @@
       <c r="R40" t="n">
         <v>2633</v>
       </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U40" t="n">
+        <v>10822649</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -3251,13 +3699,27 @@
       <c r="R42" t="n">
         <v>2636</v>
       </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U42" t="n">
+        <v>10822949</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3314,13 +3776,27 @@
       <c r="R43" t="n">
         <v>2635</v>
       </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U43" t="n">
+        <v>10822949</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3377,13 +3853,27 @@
       <c r="R44" t="n">
         <v>2635</v>
       </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U44" t="n">
+        <v>10822949</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3440,13 +3930,27 @@
       <c r="R45" t="n">
         <v>2634</v>
       </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U45" t="n">
+        <v>10822949</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -3580,13 +4084,27 @@
       <c r="R47" t="n">
         <v>2632</v>
       </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U47" t="n">
+        <v>10823249</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3643,13 +4161,27 @@
       <c r="R48" t="n">
         <v>2633</v>
       </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U48" t="n">
+        <v>10823249</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3706,13 +4238,27 @@
       <c r="R49" t="n">
         <v>2633</v>
       </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U49" t="n">
+        <v>10823249</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3769,13 +4315,27 @@
       <c r="R50" t="n">
         <v>2634</v>
       </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U50" t="n">
+        <v>10823249</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3909,13 +4469,27 @@
       <c r="R52" t="n">
         <v>2632</v>
       </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U52" t="n">
+        <v>10823549</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3972,13 +4546,27 @@
       <c r="R53" t="n">
         <v>2632</v>
       </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10823549</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -4035,13 +4623,27 @@
       <c r="R54" t="n">
         <v>2635</v>
       </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U54" t="n">
+        <v>10823549</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4098,13 +4700,27 @@
       <c r="R55" t="n">
         <v>2635</v>
       </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U55" t="n">
+        <v>10823549</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -4238,13 +4854,27 @@
       <c r="R57" t="n">
         <v>2633</v>
       </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U57" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4301,13 +4931,27 @@
       <c r="R58" t="n">
         <v>2634</v>
       </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4364,13 +5008,27 @@
       <c r="R59" t="n">
         <v>2633</v>
       </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U59" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4427,13 +5085,27 @@
       <c r="R60" t="n">
         <v>2633</v>
       </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U60" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -4490,13 +5162,27 @@
       <c r="R61" t="n">
         <v>2633</v>
       </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U61" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -4553,13 +5239,27 @@
       <c r="R62" t="n">
         <v>2632</v>
       </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U62" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4616,13 +5316,27 @@
       <c r="R63" t="n">
         <v>2635</v>
       </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4679,13 +5393,27 @@
       <c r="R64" t="n">
         <v>2635</v>
       </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U64" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4742,13 +5470,27 @@
       <c r="R65" t="n">
         <v>2635</v>
       </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U65" t="n">
+        <v>10823849</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -4882,13 +5624,27 @@
       <c r="R67" t="n">
         <v>2633</v>
       </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10824448</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4945,13 +5701,27 @@
       <c r="R68" t="n">
         <v>2633</v>
       </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U68" t="n">
+        <v>10824448</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -5008,13 +5778,27 @@
       <c r="R69" t="n">
         <v>2635</v>
       </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U69" t="n">
+        <v>10824448</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -5071,13 +5855,27 @@
       <c r="R70" t="n">
         <v>2633</v>
       </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U70" t="n">
+        <v>10824448</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -5211,13 +6009,27 @@
       <c r="R72" t="n">
         <v>2632</v>
       </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U72" t="n">
+        <v>10824748</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -5274,13 +6086,27 @@
       <c r="R73" t="n">
         <v>2635</v>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10824748</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -5337,13 +6163,27 @@
       <c r="R74" t="n">
         <v>2633</v>
       </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U74" t="n">
+        <v>10824748</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -5400,13 +6240,27 @@
       <c r="R75" t="n">
         <v>2633</v>
       </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U75" t="n">
+        <v>10824748</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -5540,13 +6394,27 @@
       <c r="R77" t="n">
         <v>2632</v>
       </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U77" t="n">
+        <v>10825048</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5603,13 +6471,27 @@
       <c r="R78" t="n">
         <v>2633</v>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U78" t="n">
+        <v>10825048</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5666,13 +6548,27 @@
       <c r="R79" t="n">
         <v>2635</v>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U79" t="n">
+        <v>10825048</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5729,13 +6625,27 @@
       <c r="R80" t="n">
         <v>2634</v>
       </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U80" t="n">
+        <v>10825048</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -5869,13 +6779,27 @@
       <c r="R82" t="n">
         <v>2635</v>
       </c>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U82" t="n">
+        <v>10825348</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5932,13 +6856,27 @@
       <c r="R83" t="n">
         <v>2634</v>
       </c>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U83" t="n">
+        <v>10825348</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5995,13 +6933,27 @@
       <c r="R84" t="n">
         <v>2632</v>
       </c>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U84" t="n">
+        <v>10825348</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -6058,13 +7010,27 @@
       <c r="R85" t="n">
         <v>2633</v>
       </c>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U85" t="n">
+        <v>10825348</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -6198,13 +7164,27 @@
       <c r="R87" t="n">
         <v>2634</v>
       </c>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U87" t="n">
+        <v>10825648</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -6261,13 +7241,27 @@
       <c r="R88" t="n">
         <v>2633</v>
       </c>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U88" t="n">
+        <v>10825648</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -6324,13 +7318,27 @@
       <c r="R89" t="n">
         <v>2635</v>
       </c>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U89" t="n">
+        <v>10825648</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -6387,13 +7395,27 @@
       <c r="R90" t="n">
         <v>2631</v>
       </c>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U90" t="n">
+        <v>10825648</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -6527,13 +7549,27 @@
       <c r="R92" t="n">
         <v>2634</v>
       </c>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U92" t="n">
+        <v>10825948</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6590,13 +7626,27 @@
       <c r="R93" t="n">
         <v>2635</v>
       </c>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U93" t="n">
+        <v>10825948</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6653,13 +7703,27 @@
       <c r="R94" t="n">
         <v>2635</v>
       </c>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U94" t="n">
+        <v>10825948</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6716,13 +7780,27 @@
       <c r="R95" t="n">
         <v>2632</v>
       </c>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U95" t="n">
+        <v>10825948</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -6856,13 +7934,27 @@
       <c r="R97" t="n">
         <v>2632</v>
       </c>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U97" t="n">
+        <v>10826248</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -6919,13 +8011,27 @@
       <c r="R98" t="n">
         <v>2633</v>
       </c>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U98" t="n">
+        <v>10826248</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6982,13 +8088,27 @@
       <c r="R99" t="n">
         <v>2635</v>
       </c>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U99" t="n">
+        <v>10826248</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -7045,13 +8165,27 @@
       <c r="R100" t="n">
         <v>2635</v>
       </c>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U100" t="n">
+        <v>10826248</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -7185,13 +8319,27 @@
       <c r="R102" t="n">
         <v>2640</v>
       </c>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U102" t="n">
+        <v>10826548</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -7248,13 +8396,27 @@
       <c r="R103" t="n">
         <v>2635</v>
       </c>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U103" t="n">
+        <v>10826548</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -7311,13 +8473,27 @@
       <c r="R104" t="n">
         <v>2636</v>
       </c>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U104" t="n">
+        <v>10826548</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -7374,13 +8550,27 @@
       <c r="R105" t="n">
         <v>2633</v>
       </c>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U105" t="n">
+        <v>10826548</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -7514,13 +8704,27 @@
       <c r="R107" t="n">
         <v>2633</v>
       </c>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U107" t="n">
+        <v>10826848</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -7577,13 +8781,27 @@
       <c r="R108" t="n">
         <v>2633</v>
       </c>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U108" t="n">
+        <v>10826848</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7640,13 +8858,27 @@
       <c r="R109" t="n">
         <v>2632</v>
       </c>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U109" t="n">
+        <v>10826848</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7703,13 +8935,27 @@
       <c r="R110" t="n">
         <v>2634</v>
       </c>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>9312</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="U110" t="n">
+        <v>10826848</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -7843,13 +9089,27 @@
       <c r="R112" t="n">
         <v>2631</v>
       </c>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U112" t="n">
+        <v>10827149</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -7906,13 +9166,27 @@
       <c r="R113" t="n">
         <v>2632</v>
       </c>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U113" t="n">
+        <v>10827149</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -7969,13 +9243,27 @@
       <c r="R114" t="n">
         <v>2633</v>
       </c>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U114" t="n">
+        <v>10827149</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -8032,13 +9320,27 @@
       <c r="R115" t="n">
         <v>2635</v>
       </c>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>9280</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="U115" t="n">
+        <v>10827149</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -8172,13 +9474,27 @@
       <c r="R117" t="n">
         <v>2633</v>
       </c>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U117" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -8235,13 +9551,27 @@
       <c r="R118" t="n">
         <v>2634</v>
       </c>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U118" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -8298,13 +9628,27 @@
       <c r="R119" t="n">
         <v>2635</v>
       </c>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U119" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -8361,13 +9705,27 @@
       <c r="R120" t="n">
         <v>2632</v>
       </c>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U120" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -8424,13 +9782,27 @@
       <c r="R121" t="n">
         <v>2632</v>
       </c>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U121" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -8487,13 +9859,27 @@
       <c r="R122" t="n">
         <v>2637</v>
       </c>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U122" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -8550,13 +9936,27 @@
       <c r="R123" t="n">
         <v>2637</v>
       </c>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U123" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -8613,13 +10013,27 @@
       <c r="R124" t="n">
         <v>2638</v>
       </c>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U124" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -8676,13 +10090,27 @@
       <c r="R125" t="n">
         <v>2638</v>
       </c>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>9248</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="U125" t="n">
+        <v>10827449</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -8816,13 +10244,27 @@
       <c r="R127" t="n">
         <v>2635</v>
       </c>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>9376</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="U127" t="n">
+        <v>10828049</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -8879,13 +10321,27 @@
       <c r="R128" t="n">
         <v>2634</v>
       </c>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>9376</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="U128" t="n">
+        <v>10828049</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+      <c r="W128" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -8942,13 +10398,27 @@
       <c r="R129" t="n">
         <v>2637</v>
       </c>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>9376</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="U129" t="n">
+        <v>10828049</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
+      <c r="W129" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -9005,13 +10475,27 @@
       <c r="R130" t="n">
         <v>2635</v>
       </c>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>9376</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="U130" t="n">
+        <v>10828049</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
+      </c>
+      <c r="W130" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -9145,13 +10629,27 @@
       <c r="R132" t="n">
         <v>2636</v>
       </c>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U132" t="n">
+        <v>10828349</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0</v>
+      </c>
+      <c r="W132" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -9208,13 +10706,27 @@
       <c r="R133" t="n">
         <v>2638</v>
       </c>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U133" t="n">
+        <v>10828349</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
+      </c>
+      <c r="W133" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -9271,13 +10783,27 @@
       <c r="R134" t="n">
         <v>2636</v>
       </c>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U134" t="n">
+        <v>10828349</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -9334,13 +10860,27 @@
       <c r="R135" t="n">
         <v>2635</v>
       </c>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U135" t="n">
+        <v>10828349</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>7836</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -9474,13 +11014,27 @@
       <c r="R137" t="n">
         <v>2633</v>
       </c>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U137" t="n">
+        <v>10828648</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -9537,13 +11091,27 @@
       <c r="R138" t="n">
         <v>2638</v>
       </c>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U138" t="n">
+        <v>10828648</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W138" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -9600,13 +11168,27 @@
       <c r="R139" t="n">
         <v>2636</v>
       </c>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U139" t="n">
+        <v>10828648</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -9663,13 +11245,27 @@
       <c r="R140" t="n">
         <v>2635</v>
       </c>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U140" t="n">
+        <v>10828648</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>7834</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -9803,13 +11399,27 @@
       <c r="R142" t="n">
         <v>2634</v>
       </c>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U142" t="n">
+        <v>10828948</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -9866,13 +11476,27 @@
       <c r="R143" t="n">
         <v>2637</v>
       </c>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>9344</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U143" t="n">
+        <v>10828948</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>7835</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
